--- a/data/output/daily_price_log.xlsx
+++ b/data/output/daily_price_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C398"/>
+  <dimension ref="A1:C795"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6399,6 +6399,5953 @@
         <v>2399</v>
       </c>
     </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C411" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C412" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C414" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C415" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C416" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C417" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C418" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C420" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C421" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C422" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C423" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C424" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C425" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C426" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C427" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C428" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C429" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C430" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C431" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C432" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C433" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C434" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C435" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C436" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C437" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C438" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C439" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C440" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C441" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C442" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C443" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C444" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C445" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C446" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C447" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C448" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C449" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C450" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C451" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C452" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>True Basics</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C453" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C454" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C455" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C456" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C457" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C458" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C459" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C460" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C461" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C462" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C463" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C464" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C465" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C466" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C467" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C468" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C469" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C470" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C471" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C472" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C473" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C474" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C475" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C476" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Nutrabay*</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C477" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Nutrabay*</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C478" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C479" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C480" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C481" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C482" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C483" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C484" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C485" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C486" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C487" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C488" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C489" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C490" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C491" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C492" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C493" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C494" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C495" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C496" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C497" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C498" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C499" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C500" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C501" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C502" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C503" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C504" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C505" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C506" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C507" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C508" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C509" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C510" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C511" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C512" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C513" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C514" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C515" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C516" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C517" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C518" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C519" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C520" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C521" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C522" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C523" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C524" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C525" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C526" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C527" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C528" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C529" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C530" t="n">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C531" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C532" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C533" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C534" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C535" t="n">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C536" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C537" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C538" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C539" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C540" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C541" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C542" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C543" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C544" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C545" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C546" t="n">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C547" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C548" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C549" t="n">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C550" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C551" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C552" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C553" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C554" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C555" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C556" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C557" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C558" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C559" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C560" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C561" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C562" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C563" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C564" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C565" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C566" t="n">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C567" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C568" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C569" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C570" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C571" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C572" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C573" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C574" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C575" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C576" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C577" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C578" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C579" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C580" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C581" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C582" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C583" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C584" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C585" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>True Basics</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C586" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C587" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C588" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C589" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C590" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C591" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C592" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C593" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C594" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C595" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C596" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C597" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C598" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C599" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C600" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C601" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C602" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C603" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C604" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C605" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C606" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C607" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C608" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C609" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>Nutrabay*</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C610" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>Nutrabay*</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C611" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C612" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C613" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C614" t="n">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C615" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C616" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C617" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C618" t="n">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C619" t="n">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C620" t="n">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C621" t="n">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C622" t="n">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C623" t="n">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C624" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C625" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C626" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C627" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C628" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C629" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C630" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C631" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C632" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C633" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C634" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C635" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C636" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C637" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C638" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C639" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C640" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C641" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C642" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C643" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C644" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C645" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C646" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C647" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C648" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C649" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C650" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C651" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C652" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C653" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C654" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C655" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C656" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C657" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C658" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C659" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C660" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C661" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C662" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C663" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C664" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C665" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C666" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C667" t="n">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C668" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C669" t="n">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C670" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C671" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C672" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C673" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C674" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C675" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C676" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C677" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C678" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C679" t="n">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>True Basics</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C680" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C681" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C682" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C683" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C684" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C685" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C686" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C687" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>Nutrabay*</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C688" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C689" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C690" t="n">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C691" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C692" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C693" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C694" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C695" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C696" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C697" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C698" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C699" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C700" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C701" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C702" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C703" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C704" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C705" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C706" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C707" t="n">
+        <v>3823</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C708" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C709" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C710" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C711" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C712" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C713" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C714" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C715" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C716" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C717" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C718" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C719" t="n">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C720" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C721" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C722" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C723" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C724" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C725" t="n">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C726" t="n">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C727" t="n">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C728" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C729" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C730" t="n">
+        <v>3823</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C731" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C732" t="n">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C733" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C734" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C735" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C736" t="n">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C737" t="n">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C738" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C739" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C740" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C741" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C742" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C743" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C744" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C745" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C746" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C747" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C748" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C749" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C750" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C751" t="n">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C752" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C753" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C754" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C755" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C756" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C757" t="n">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C758" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C759" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C760" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>Nutrabay*</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C761" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C762" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C763" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C764" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C765" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C766" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C767" t="n">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C768" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C769" t="n">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C770" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C771" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C772" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C773" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C774" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C775" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C776" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C777" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C778" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C779" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C780" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C781" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C782" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C783" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C784" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C785" t="n">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C786" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C787" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C788" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C789" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C790" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C791" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C792" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C793" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C794" t="n">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C795" t="n">
+        <v>2299</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/output/daily_price_log.xlsx
+++ b/data/output/daily_price_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C795"/>
+  <dimension ref="A1:C1192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12346,6 +12346,5917 @@
         <v>2299</v>
       </c>
     </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr"/>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr"/>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr"/>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C799" t="inlineStr"/>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C800" t="inlineStr"/>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr"/>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C802" t="inlineStr"/>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C803" t="inlineStr"/>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr"/>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr"/>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr"/>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr"/>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr"/>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr"/>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr"/>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr"/>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr"/>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr"/>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr"/>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr"/>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr"/>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr"/>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C818" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C819" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C820" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C821" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C822" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C823" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C824" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C825" t="n">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C826" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C827" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C828" t="n">
+        <v>3823</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C829" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C830" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C831" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C832" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C833" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C834" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C835" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C836" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C837" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C838" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C839" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C840" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C841" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C842" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C843" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C844" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C845" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C846" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C847" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C848" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C849" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>True Basics</t>
+        </is>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C850" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C851" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C852" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C853" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C854" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C855" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C856" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C857" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C858" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C859" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C860" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C861" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C862" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C863" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C864" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C865" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C866" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C867" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C868" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C869" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C870" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C871" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C872" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C873" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>Nutrabay*</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C874" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>Nutrabay*</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C875" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C876" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C877" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C878" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C879" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C880" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C881" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C882" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C883" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C884" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C885" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C886" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C887" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C888" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C889" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C890" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C891" t="n">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C892" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C893" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C894" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C895" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C896" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C897" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C898" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C899" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C900" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C901" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C902" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C903" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C904" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C905" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C906" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C907" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C908" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C909" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C910" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C911" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C912" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C913" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C914" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C915" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C916" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C917" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C918" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C919" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C920" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C921" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C922" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C923" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C924" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C925" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C926" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C927" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C928" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C929" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C930" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C931" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C932" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C933" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C934" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C935" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C936" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C937" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C938" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C939" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C940" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C941" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C942" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C943" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C944" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C945" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C946" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C947" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C948" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C949" t="n">
+        <v>6302</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C950" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C951" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C952" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C953" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C954" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C955" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C956" t="n">
+        <v>7498</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C957" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C958" t="n">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C959" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C960" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C961" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C962" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C963" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C964" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C965" t="n">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C966" t="n">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C967" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C968" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C969" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C970" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C971" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C972" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C973" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C974" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C975" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C976" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C977" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C978" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C979" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C980" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C981" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C982" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>True Basics</t>
+        </is>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C983" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C984" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C985" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C986" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C987" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C988" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C989" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C990" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C991" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C992" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C993" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C994" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C995" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C996" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C997" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C998" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C999" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1000" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1001" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1002" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1003" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1004" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1005" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1006" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>Nutrabay*</t>
+        </is>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1007" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>Nutrabay*</t>
+        </is>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1008" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1009" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1010" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1011" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1012" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1013" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1014" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1015" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1016" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1017" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1018" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1019" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1020" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1021" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1022" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1023" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1024" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1025" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1026" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1027" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1028" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1029" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B1030" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1030" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B1031" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1031" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B1032" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1032" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B1033" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1033" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B1034" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1034" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B1035" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1035" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1036" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B1037" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1037" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B1038" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1038" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B1039" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1039" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B1040" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1040" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1041" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1042" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B1043" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1043" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B1044" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1044" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B1045" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1045" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B1046" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1046" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B1047" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1047" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B1048" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1048" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B1049" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1049" t="n">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B1050" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1050" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B1051" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1051" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B1052" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1052" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B1053" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1053" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B1054" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1054" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B1055" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1055" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B1056" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1056" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B1057" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1057" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B1058" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1058" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1059" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1060" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1061" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1062" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1063" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B1064" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1064" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1065" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1066" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1067" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1068" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1069" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1070" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1071" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1072" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1073" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1074" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1075" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1076" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t>True Basics</t>
+        </is>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1077" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1078" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1079" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1080" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1081" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1082" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1083" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1084" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>Nutrabay*</t>
+        </is>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1085" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1086" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1087" t="n">
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1088" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1089" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B1090" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1090" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B1091" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1091" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B1092" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1092" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1093" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B1094" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1094" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1095" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1096" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1097" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1098" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1099" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1100" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1101" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1102" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1103" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1104" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1105" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1106" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1107" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B1108" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1108" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B1109" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1109" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B1110" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1110" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B1111" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1111" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B1112" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1112" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1113" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1114" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B1115" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1115" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1116" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1117" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B1118" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1118" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B1119" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1119" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B1120" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1120" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B1121" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1121" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B1122" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1122" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B1123" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1123" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B1124" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1124" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1125" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B1126" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1126" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1127" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B1128" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1128" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B1129" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1129" t="n">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1130" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B1131" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1131" t="n">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B1132" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1132" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B1133" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1133" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B1134" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1134" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B1135" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1135" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B1136" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1136" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="inlineStr">
+        <is>
+          <t>Wellbeing</t>
+        </is>
+      </c>
+      <c r="B1137" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1137" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B1138" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1138" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B1139" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1139" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B1140" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1140" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="inlineStr">
+        <is>
+          <t>Truebasics</t>
+        </is>
+      </c>
+      <c r="B1141" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1141" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B1142" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1142" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B1143" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1143" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B1144" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1144" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B1145" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1145" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1146" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B1147" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1147" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1148" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1149" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1150" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B1151" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1151" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1152" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1153" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1154" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B1155" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1155" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B1156" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1156" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="inlineStr">
+        <is>
+          <t>The Whole Truth</t>
+        </is>
+      </c>
+      <c r="B1157" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1157" t="n">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="inlineStr">
+        <is>
+          <t>Nutrabay*</t>
+        </is>
+      </c>
+      <c r="B1158" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1158" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B1159" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1159" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>Nutrabay</t>
+        </is>
+      </c>
+      <c r="B1160" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1160" t="n">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1161" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1162" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="inlineStr">
+        <is>
+          <t>Neulife</t>
+        </is>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1163" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1164" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1165" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="inlineStr">
+        <is>
+          <t>Naturaltein</t>
+        </is>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1166" t="n">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1167" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B1168" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1168" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B1169" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1169" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>Nakpro</t>
+        </is>
+      </c>
+      <c r="B1170" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1170" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1171" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1172" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1173" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1174" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1175" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1176" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1177" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1178" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1179" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1180" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1181" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1182" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1183" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1184" t="n">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1185" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="inlineStr">
+        <is>
+          <t>Muscleblaze</t>
+        </is>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1186" t="n">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="inlineStr">
+        <is>
+          <t>Fuel One</t>
+        </is>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1187" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1188" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1189" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1190" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>Foodstrong</t>
+        </is>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1191" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>As it is</t>
+        </is>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C1192" t="n">
+        <v>2299</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
